--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1230.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1230.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.321002786921986</v>
+        <v>1.202022910118103</v>
       </c>
       <c r="B1">
-        <v>2.68867872744526</v>
+        <v>1.949655532836914</v>
       </c>
       <c r="C1">
-        <v>2.176019203209615</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.978959638547433</v>
+        <v>1.964297890663147</v>
       </c>
       <c r="E1">
-        <v>1.647695350548303</v>
+        <v>1.205873489379883</v>
       </c>
     </row>
   </sheetData>
